--- a/EndoscopeInventory.xlsx
+++ b/EndoscopeInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/el20sw_leeds_ac_uk/Documents/Level 5/MECH5080/MECH5080 - Group Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="11_F25DC773A252ABDACC1048AFE1DA7F065ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40EDC48B-0AF7-4E9E-85D0-8A38362D4957}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="11_F25DC773A252ABDACC1048AFE1DA7F065ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F68CD8F5-0D90-4BC5-955C-1C2B7CB6D096}"/>
   <bookViews>
-    <workbookView xWindow="9" yWindow="9" windowWidth="32897" windowHeight="17777" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CADInventory" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="145">
   <si>
     <t>Description</t>
   </si>
@@ -145,18 +145,12 @@
     <t>Wheel</t>
   </si>
   <si>
-    <t>The Wheel for the System</t>
-  </si>
-  <si>
     <t>END-012-1</t>
   </si>
   <si>
     <t>Wheel Hub Caps</t>
   </si>
   <si>
-    <t>Hub Caps on the outer face of the wheel</t>
-  </si>
-  <si>
     <t>END-013-1</t>
   </si>
   <si>
@@ -449,13 +443,31 @@
   </si>
   <si>
     <t>Guidance Block 30 Straight Up</t>
+  </si>
+  <si>
+    <t>Hub Caps on the outer face of the wheel, 4x Flat</t>
+  </si>
+  <si>
+    <t>Hub Caps on the outer face of the wheel, 8x Tall Dome, 4x Short Dome</t>
+  </si>
+  <si>
+    <t>ELEC-018</t>
+  </si>
+  <si>
+    <t>For A/D board</t>
+  </si>
+  <si>
+    <t>The Wheel for the System, 4 Spare (Pink), 1 Spare (TPU)</t>
+  </si>
+  <si>
+    <t>For External LED control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,25 +483,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -504,11 +510,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,6 +529,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,7 +801,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -964,11 +973,11 @@
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -978,7 +987,7 @@
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" t="s">
@@ -987,127 +996,129 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>122</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>125</v>
       </c>
-      <c r="B21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBBAEFB-331C-4450-9C1A-219C7CFDFB24}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1124,10 +1135,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -1158,19 +1169,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1178,19 +1189,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1198,305 +1209,323 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>85</v>
-      </c>
-      <c r="G7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
         <v>96</v>
       </c>
-      <c r="G11" t="s">
-        <v>98</v>
-      </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
         <v>137</v>
       </c>
-      <c r="B12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>99</v>
-      </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H13" s="2">
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
         <v>108</v>
-      </c>
-      <c r="G15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
         <v>131</v>
-      </c>
-      <c r="G18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H19">
         <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.4">
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>